--- a/biology/Zoologie/Conus_ignotus/Conus_ignotus.xlsx
+++ b/biology/Zoologie/Conus_ignotus/Conus_ignotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus ignotus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Nicaragua jusqu'à la Colombie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, il y a peu d'informations sur cette espèce dans la littérature. Elle n'est connue que par quelques spécimens. Cette espèce est classée dans la catégorie Données insuffisantes[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, il y a peu d'informations sur cette espèce dans la littérature. Elle n'est connue que par quelques spécimens. Cette espèce est classée dans la catégorie Données insuffisantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_ignotus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ignotus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus ignotus a été décrite pour la première fois en 1998 par le malacologiste américain William P. Cargile[2] dans la publication intitulée « Siratus »[3],[4].
-Synonymes
-Attenuiconus ignotus (Cargile, 1998) · non accepté
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus ignotus a été décrite pour la première fois en 1998 par le malacologiste américain William P. Cargile dans la publication intitulée « Siratus »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_ignotus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ignotus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Attenuiconus ignotus (Cargile, 1998) · non accepté
 Conus (Kellyconus) ignotus Cargile, 1998 · appellation alternative
 Kellyconus ignotus (Cargile, 1998) · non accepté</t>
         </is>
